--- a/Clase_03/Base_Transporte.xlsx
+++ b/Clase_03/Base_Transporte.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminolivavazquez/Documents/Personal/Cursos_UNAM/SERIES_2022-I/Series-de-Tiempo-2021/Clase_03/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Library/Mobile Documents/com~apple~CloudDocs/Documents/Personal/Cursos_UNAM/SERIES_2023-I/Series-de-Tiempo-2022/Clase_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7505E6-E4B6-AC48-83F8-DE0F8F076CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6347D39-3B08-594F-9F66-F0F212992361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34120" yWindow="760" windowWidth="28800" windowHeight="17500" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
+    <workbookView xWindow="34380" yWindow="500" windowWidth="16000" windowHeight="18880" xr2:uid="{010589B2-5E98-1D40-AEE0-AA1A110D1180}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E033B569-E481-7947-93CD-4A9A959244F1}">
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236:A260"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5478,16 +5478,16 @@
         <v>44197</v>
       </c>
       <c r="B254">
-        <v>2685469</v>
+        <v>2685767</v>
       </c>
       <c r="C254">
-        <v>1185138</v>
+        <v>1185142</v>
       </c>
       <c r="D254">
-        <v>26925</v>
+        <v>26930</v>
       </c>
       <c r="E254">
-        <v>11535</v>
+        <v>11514</v>
       </c>
       <c r="F254">
         <v>41.033642</v>
@@ -5498,16 +5498,16 @@
         <v>44228</v>
       </c>
       <c r="B255">
-        <v>2213797</v>
+        <v>2214034</v>
       </c>
       <c r="C255">
-        <v>712175</v>
+        <v>712193</v>
       </c>
       <c r="D255">
-        <v>20712</v>
+        <v>20717</v>
       </c>
       <c r="E255">
-        <v>9037</v>
+        <v>9036</v>
       </c>
       <c r="F255">
         <v>50.436321</v>
@@ -5518,16 +5518,16 @@
         <v>44256</v>
       </c>
       <c r="B256">
-        <v>3162388</v>
+        <v>3162379</v>
       </c>
       <c r="C256">
-        <v>1130103</v>
+        <v>1130645</v>
       </c>
       <c r="D256">
-        <v>25982</v>
+        <v>26010</v>
       </c>
       <c r="E256">
-        <v>10579</v>
+        <v>10584</v>
       </c>
       <c r="F256">
         <v>65.449779000000007</v>
@@ -5538,16 +5538,16 @@
         <v>44287</v>
       </c>
       <c r="B257">
-        <v>3454084</v>
+        <v>3452944</v>
       </c>
       <c r="C257">
-        <v>1376050</v>
+        <v>1377367</v>
       </c>
       <c r="D257">
-        <v>29362</v>
+        <v>29349</v>
       </c>
       <c r="E257">
-        <v>10723</v>
+        <v>10690</v>
       </c>
       <c r="F257">
         <v>62.577359000000001</v>
@@ -5558,16 +5558,16 @@
         <v>44317</v>
       </c>
       <c r="B258">
-        <v>3785494</v>
+        <v>3784266</v>
       </c>
       <c r="C258">
-        <v>1655265</v>
+        <v>1656557</v>
       </c>
       <c r="D258">
-        <v>30060</v>
+        <v>30076</v>
       </c>
       <c r="E258">
-        <v>12198</v>
+        <v>12169</v>
       </c>
       <c r="F258">
         <v>62.689974999999997</v>
@@ -5578,16 +5578,16 @@
         <v>44348</v>
       </c>
       <c r="B259">
-        <v>3789268</v>
+        <v>3791459</v>
       </c>
       <c r="C259">
-        <v>1847458</v>
+        <v>1844126</v>
       </c>
       <c r="D259">
-        <v>30049</v>
+        <v>30069</v>
       </c>
       <c r="E259">
-        <v>13025</v>
+        <v>13040</v>
       </c>
       <c r="F259">
         <v>63.410818999999996</v>
@@ -5598,19 +5598,239 @@
         <v>44378</v>
       </c>
       <c r="B260">
-        <v>4353838</v>
+        <v>4352913</v>
       </c>
       <c r="C260">
-        <v>2115968</v>
+        <v>2117022</v>
       </c>
       <c r="D260">
-        <v>34418</v>
+        <v>34437</v>
       </c>
       <c r="E260">
-        <v>14272</v>
+        <v>14275</v>
       </c>
       <c r="F260">
         <v>69.822068999999999</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B261">
+        <v>3961404</v>
+      </c>
+      <c r="C261">
+        <v>1954690</v>
+      </c>
+      <c r="D261">
+        <v>34324</v>
+      </c>
+      <c r="E261">
+        <v>13767</v>
+      </c>
+      <c r="F261">
+        <v>67.964499000000004</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B262">
+        <v>3577845</v>
+      </c>
+      <c r="C262">
+        <v>1483917</v>
+      </c>
+      <c r="D262">
+        <v>30171</v>
+      </c>
+      <c r="E262">
+        <v>12192</v>
+      </c>
+      <c r="F262">
+        <v>70.154246999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B263">
+        <v>4118307</v>
+      </c>
+      <c r="C263">
+        <v>1719971</v>
+      </c>
+      <c r="D263">
+        <v>32974</v>
+      </c>
+      <c r="E263">
+        <v>13269</v>
+      </c>
+      <c r="F263">
+        <v>78.122951999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B264">
+        <v>4313721</v>
+      </c>
+      <c r="C264">
+        <v>1924449</v>
+      </c>
+      <c r="D264">
+        <v>33291</v>
+      </c>
+      <c r="E264">
+        <v>14603</v>
+      </c>
+      <c r="F264">
+        <v>78.483883000000006</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B265">
+        <v>4681213</v>
+      </c>
+      <c r="C265">
+        <v>2034286</v>
+      </c>
+      <c r="D265">
+        <v>36234</v>
+      </c>
+      <c r="E265">
+        <v>17048</v>
+      </c>
+      <c r="F265">
+        <v>84.154004</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B266">
+        <v>3767905</v>
+      </c>
+      <c r="C266">
+        <v>2094697</v>
+      </c>
+      <c r="D266">
+        <v>33193</v>
+      </c>
+      <c r="E266">
+        <v>16690</v>
+      </c>
+      <c r="F266">
+        <v>70.563670000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B267">
+        <v>3535885</v>
+      </c>
+      <c r="C267">
+        <v>1838837</v>
+      </c>
+      <c r="D267">
+        <v>28461</v>
+      </c>
+      <c r="E267">
+        <v>14526</v>
+      </c>
+      <c r="F267">
+        <v>72.052554999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B268">
+        <v>4438186</v>
+      </c>
+      <c r="C268">
+        <v>2440988</v>
+      </c>
+      <c r="D268">
+        <v>33596</v>
+      </c>
+      <c r="E268">
+        <v>17062</v>
+      </c>
+      <c r="F268">
+        <v>88.358373999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B269">
+        <v>4701502</v>
+      </c>
+      <c r="C269">
+        <v>2325751</v>
+      </c>
+      <c r="D269">
+        <v>35540</v>
+      </c>
+      <c r="E269">
+        <v>16314</v>
+      </c>
+      <c r="F269">
+        <v>82.897273999999996</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B270">
+        <v>4424819</v>
+      </c>
+      <c r="C270">
+        <v>2045556</v>
+      </c>
+      <c r="D270">
+        <v>35713</v>
+      </c>
+      <c r="E270">
+        <v>15280</v>
+      </c>
+      <c r="F270">
+        <v>91.245641000000006</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B271">
+        <v>4224212</v>
+      </c>
+      <c r="C271">
+        <v>2084684</v>
+      </c>
+      <c r="D271">
+        <v>35135</v>
+      </c>
+      <c r="E271">
+        <v>15424</v>
+      </c>
+      <c r="F271">
+        <v>88.424030000000002</v>
       </c>
     </row>
   </sheetData>
